--- a/xlsx/蔬菜_intext.xlsx
+++ b/xlsx/蔬菜_intext.xlsx
@@ -29,7 +29,7 @@
     <t>烹饪</t>
   </si>
   <si>
-    <t>政策_政策_美國_蔬菜</t>
+    <t>政策_政策_美国_蔬菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9</t>
   </si>
   <si>
-    <t>穀物</t>
+    <t>谷物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9</t>
@@ -59,37 +59,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>營養</t>
+    <t>营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5%E6%8E%A1%E9%9B%86</t>
   </si>
   <si>
-    <t>狩獵採集</t>
+    <t>狩猎采集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%B5%A6%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>自給農業</t>
+    <t>自给农业</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/agribusiness</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>維生素</t>
+    <t>维生素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>礦物質</t>
+    <t>矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A4%E7%BB%B4</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%A3%9F%E9%87%91%E5%AD%97%E5%A1%94</t>
   </si>
   <si>
-    <t>飲食金字塔</t>
+    <t>饮食金字塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B0%8F%E5%9B%BE</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E5%AF%A6</t>
   </si>
   <si>
-    <t>果實</t>
+    <t>果实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B9</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%8A%E8%8E%96</t>
   </si>
   <si>
-    <t>塊莖</t>
+    <t>块茎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%9E%E8%8C%8E</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E8%8E%96</t>
   </si>
   <si>
-    <t>球莖</t>
+    <t>球茎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89</t>
   </si>
   <si>
-    <t>葉</t>
+    <t>叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E5%AD%90</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E5%B7%B4%E9%86%AC</t>
   </si>
   <si>
-    <t>參巴醬</t>
+    <t>参巴酱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%95%B9%E8%8F%9C</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0A</t>
   </si>
   <si>
-    <t>維生素A</t>
+    <t>维生素A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0K</t>
   </si>
   <si>
-    <t>維生素K</t>
+    <t>维生素K</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%94%9F%E7%B4%A0B6</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%94%9F%E7%B4%A0%E5%8E%9F</t>
   </si>
   <si>
-    <t>維生素原</t>
+    <t>维生素原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%A4%A6%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>膳食礦物質</t>
+    <t>膳食矿物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E6%B0%B4%E5%8C%96%E5%90%88%E7%89%A9</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E5%8C%96%E5%AD%B8%E6%88%90%E5%88%86</t>
   </si>
   <si>
-    <t>植物化學成分</t>
+    <t>植物化学成分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E6%B0%A7%E5%8C%96%E5%8A%91</t>
   </si>
   <si>
-    <t>抗氧化劑</t>
+    <t>抗氧化剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%8F%8C%E5%89%82</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%97%85%E6%AF%92%E8%97%A5%E7%89%A9</t>
   </si>
   <si>
-    <t>抗病毒藥物</t>
+    <t>抗病毒药物</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Plant_sources_of_anti-cancer_agents</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%B3%E9%A3%9F%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>膳食纖維</t>
+    <t>膳食纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A0%95%E5%8A%A8</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%87%9F%E9%A4%8A%E7%B4%A0</t>
   </si>
   <si>
-    <t>抗營養素</t>
+    <t>抗营养素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%84%E7%A2%B1</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%8C%84%E9%B9%BC</t>
   </si>
   <si>
-    <t>卡茄鹼</t>
+    <t>卡茄碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B6%E6%8A%91%E8%A3%BD%E5%8A%91</t>
   </si>
   <si>
-    <t>酶抑製劑</t>
+    <t>酶抑制剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%85%B0%E8%83%86%E7%A2%B1%E9%85%AF%E9%85%B6</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B1%E7%B2%89%E9%85%B6</t>
   </si>
   <si>
-    <t>澱粉酶</t>
+    <t>淀粉酶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B0%E5%8C%96%E7%89%A9</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%87%9F%E7%97%85</t>
   </si>
   <si>
-    <t>心臟病</t>
+    <t>心脏病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2%E5%9E%8B%E7%B3%96%E5%B0%BF%E7%97%85</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -497,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -557,25 +557,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E4%B8%96%E7%95%8C</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%8C%96%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際標準化組織</t>
+    <t>国际标准化组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%AC%E8%8F%9C%E5%88%97%E8%A1%A8</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E9%B3%B3%E8%8F%9C</t>
   </si>
   <si>
-    <t>紅鳳菜</t>
+    <t>红凤菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%AE%E8%8F%9C</t>
   </si>
   <si>
-    <t>皇宮菜</t>
+    <t>皇宫菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%BD%E8%91%B5</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%98%87</t>
   </si>
   <si>
-    <t>山蘇</t>
+    <t>山苏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E9%AC%9A%E8%8F%9C</t>
   </si>
   <si>
-    <t>龍鬚菜</t>
+    <t>龙须菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E6%B1%9F%E8%8F%9C</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E8%8F%9C</t>
   </si>
   <si>
-    <t>高麗菜</t>
+    <t>高丽菜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B4%E9%A6%99</t>
@@ -725,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E5%B1%A4%E5%A1%94</t>
   </si>
   <si>
-    <t>九層塔</t>
+    <t>九层塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%93%9C%E8%91%89</t>
   </si>
   <si>
-    <t>地瓜葉</t>
+    <t>地瓜叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E8%8A%BD%E8%8F%9C</t>
@@ -749,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%9C%E9%A0%AD</t>
   </si>
   <si>
-    <t>蒜頭</t>
+    <t>蒜头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E8%94%A5</t>
   </si>
   <si>
-    <t>洋蔥</t>
+    <t>洋葱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%AD%E8%8F%9C</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%93%9C</t>
   </si>
   <si>
-    <t>節瓜</t>
+    <t>节瓜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9D%E7%93%9C</t>
@@ -875,25 +875,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%88%B4%E8%96%AF</t>
   </si>
   <si>
-    <t>馬鈴薯</t>
+    <t>马铃薯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%97%A5</t>
   </si>
   <si>
-    <t>山藥</t>
+    <t>山药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%8B%E9%A0%AD</t>
   </si>
   <si>
-    <t>芋頭</t>
+    <t>芋头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3%E7%AD%8D</t>
   </si>
   <si>
-    <t>玉米筍</t>
+    <t>玉米笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E7%AC%99</t>
@@ -905,25 +905,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%86%E7%AD%8D</t>
   </si>
   <si>
-    <t>蘆筍</t>
+    <t>芦笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%AD%E7%99%BD%E7%AD%8D</t>
   </si>
   <si>
-    <t>茭白筍</t>
+    <t>茭白笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%BF%E8%94%94</t>
   </si>
   <si>
-    <t>蘿蔔</t>
+    <t>萝卜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E8%98%BF%E8%94%94</t>
   </si>
   <si>
-    <t>胡蘿蔔</t>
+    <t>胡萝卜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E8%92%A1</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E7%AD%8D</t>
   </si>
   <si>
-    <t>竹筍</t>
+    <t>竹笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E7%AC%8B</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E9%A1%9E</t>
   </si>
   <si>
-    <t>豆類</t>
+    <t>豆类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%8C%E8%B1%86</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8F%E9%AE%91%E8%8F%87</t>
   </si>
   <si>
-    <t>杏鮑菇</t>
+    <t>杏鲍菇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%98%91</t>
@@ -1097,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B8%B6</t>
   </si>
   <si>
-    <t>海帶</t>
+    <t>海带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E8%8F%9C</t>
@@ -1133,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%BF%E6%9E%9C</t>
   </si>
   <si>
-    <t>漿果</t>
+    <t>浆果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%AC%E6%9E%9C%E6%B1%81</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%9A%E8%8F%9C%E5%85%B1%E7%94%9F</t>
   </si>
   <si>
-    <t>魚菜共生</t>
+    <t>鱼菜共生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E8%8D%89%E5%8A%A8%E7%89%A9</t>
@@ -1187,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A4%8D%E7%89%A9%E7%97%85%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>植物病理學</t>
+    <t>植物病理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Vegetable_carving</t>
@@ -1199,25 +1199,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>Template talk-素食主義</t>
+    <t>Template talk-素食主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>素食主義</t>
+    <t>素食主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E9%A3%9F%E7%87%9F%E9%A4%8A%E5%AD%B8</t>
   </si>
   <si>
-    <t>素食營養學</t>
+    <t>素食营养学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B1%BC%E7%B4%A0%E8%80%85</t>
@@ -1229,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B2%BB%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>免費素食主義</t>
+    <t>免费素食主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>純素食主義</t>
+    <t>纯素食主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E9%A3%9F%E4%B8%BB%E4%B9%89</t>
@@ -1247,7 +1247,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>生素食主義</t>
+    <t>生素食主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Low_carbon_diet</t>
@@ -1265,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%94%E7%B4%A0%E9%A3%9F%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>純素食無政府主義</t>
+    <t>纯素食无政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97</t>
@@ -1277,19 +1277,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>動物權利</t>
+    <t>动物权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>動物福利</t>
+    <t>动物福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ethics_of_eating_meat</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%89%E9%A1%9E%E6%9B%BF%E4%BB%A3%E5%93%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>肉類替代品列表</t>
+    <t>肉类替代品列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%B3%E5%99%8C</t>
@@ -1373,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9C%E9%BA%A5</t>
   </si>
   <si>
-    <t>藜麥</t>
+    <t>藜麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E8%85%90</t>
@@ -1385,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%B5%E7%AD%8B</t>
   </si>
   <si>
-    <t>麵筋</t>
+    <t>面筋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%B4%A0%E9%A3%9F%E8%81%94%E7%9B%9F</t>
@@ -1403,13 +1403,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8C%E5%85%A8%E7%B4%A0%E9%A3%9F%E5%8D%94%E6%9C%83_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>完全素食協會 (英國)</t>
+    <t>完全素食协会 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B4%94%E7%B4%A0%E9%A3%9F%E6%97%A5</t>
   </si>
   <si>
-    <t>世界純素食日</t>
+    <t>世界纯素食日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B4%A0%E9%A3%9F%E6%97%A5</t>
@@ -1427,13 +1427,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E4%B8%80%E7%84%A1%E8%82%89%E6%97%A5</t>
   </si>
   <si>
-    <t>週一無肉日</t>
+    <t>周一无肉日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
